--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 11.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 11.xlsx_with_dialog_acts.xlsx
@@ -907,12 +907,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1447,12 +1447,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2167,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
